--- a/src/test/resources/testdata/IR.xlsx
+++ b/src/test/resources/testdata/IR.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldu\git\d3securityautomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D782BA-98D1-4425-876A-C6C1CE3A3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703EB139-A555-484C-AC9E-1EBA793DC99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="3360" windowWidth="32940" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IR_General information" sheetId="1" r:id="rId1"/>
+    <sheet name="testIR_GeneralInformation" sheetId="1" r:id="rId1"/>
     <sheet name="IR_Tasks" sheetId="2" r:id="rId2"/>
     <sheet name="IR_Location" sheetId="3" r:id="rId3"/>
     <sheet name="IR_TrackingLog" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CaseID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>IncidentEndedOn</t>
   </si>
   <si>
-    <t>SemdOneTimeEmailNotificationOnSave</t>
-  </si>
-  <si>
     <t>Notifications</t>
   </si>
   <si>
@@ -105,19 +102,37 @@
     <t xml:space="preserve">UseEmailNotificationAssignmentRules </t>
   </si>
   <si>
-    <t>NotifyCCRecipientsonCreateEditandClose</t>
-  </si>
-  <si>
-    <t>OnIRCreateandEdit</t>
-  </si>
-  <si>
-    <t>OnIRClose</t>
-  </si>
-  <si>
-    <t>OnAssigneeReassign</t>
-  </si>
-  <si>
     <t>This is for testing section: General information</t>
+  </si>
+  <si>
+    <t>SendOneTimeEmailNotificationOnSave</t>
+  </si>
+  <si>
+    <t>NotifyCCRecipientsOnCreateEditandClose</t>
+  </si>
+  <si>
+    <t>Creator_OnIRCreateandEdit</t>
+  </si>
+  <si>
+    <t>Creator_OnIRClose</t>
+  </si>
+  <si>
+    <t>Creator_OnAssigneeReassign</t>
+  </si>
+  <si>
+    <t>Assignee_OnIRCreateandEdit</t>
+  </si>
+  <si>
+    <t>Assignee_OnIRClose</t>
+  </si>
+  <si>
+    <t>Assignee_OnAssigneeReassign</t>
+  </si>
+  <si>
+    <t>DropDownOption</t>
+  </si>
+  <si>
+    <t>Incident Report</t>
   </si>
 </sst>
 </file>
@@ -453,7 +468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,24 +478,26 @@
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="50" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" customWidth="1"/>
-    <col min="24" max="24" width="19.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="50" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" customWidth="1"/>
+    <col min="25" max="25" width="36.85546875" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" customWidth="1"/>
+    <col min="27" max="27" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -495,52 +514,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>27</v>
@@ -549,25 +568,27 @@
         <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -576,34 +597,37 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="b">
+      <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="b">
+      <c r="L2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="b">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" t="b">
+      <c r="Q2" t="b">
         <v>1</v>
       </c>
-      <c r="S2" t="b">
+      <c r="T2" t="b">
         <v>1</v>
       </c>
-      <c r="W2" t="b">
+      <c r="X2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/testdata/IR.xlsx
+++ b/src/test/resources/testdata/IR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldu\git\d3securityautomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703EB139-A555-484C-AC9E-1EBA793DC99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740CDC0-3E9D-4073-AC4E-63BB33C7F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="3360" windowWidth="32940" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testIR_GeneralInformation" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>CaseID</t>
   </si>
@@ -133,6 +133,45 @@
   </si>
   <si>
     <t>Incident Report</t>
+  </si>
+  <si>
+    <t>ArrestDetails</t>
+  </si>
+  <si>
+    <t>WorkplaceViolence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeofAccident </t>
+  </si>
+  <si>
+    <t>RequiredField</t>
+  </si>
+  <si>
+    <t>MandatoryonSave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MandatoryonClose </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Posture</t>
+  </si>
+  <si>
+    <t>Hitech</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation test new Incident Report </t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -177,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -185,7 +224,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,9 +545,15 @@
     <col min="25" max="25" width="36.85546875" customWidth="1"/>
     <col min="26" max="26" width="27.28515625" customWidth="1"/>
     <col min="27" max="27" width="43.28515625" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="17" style="2" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" style="2"/>
+    <col min="32" max="32" width="18.28515625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="19.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,53 +635,118 @@
       <c r="AA1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
+      <c r="L2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="X2" t="b">
-        <v>1</v>
+      <c r="Q2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/IR.xlsx
+++ b/src/test/resources/testdata/IR.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldu\git\d3securityautomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740CDC0-3E9D-4073-AC4E-63BB33C7F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1F79F-5894-4170-B11F-02D73315F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1185" yWindow="5580" windowWidth="29010" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="testIR_GeneralInformation" sheetId="1" r:id="rId1"/>
+    <sheet name="test_IR_GeneralInformation" sheetId="1" r:id="rId1"/>
     <sheet name="IR_Tasks" sheetId="2" r:id="rId2"/>
     <sheet name="IR_Location" sheetId="3" r:id="rId3"/>
     <sheet name="IR_TrackingLog" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>CaseID</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>ldu@d3security.com</t>
   </si>
 </sst>
 </file>
@@ -181,10 +184,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,8 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +546,7 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
@@ -700,10 +716,16 @@
       <c r="O2" s="4">
         <v>28</v>
       </c>
-      <c r="P2" s="4" t="b">
+      <c r="P2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="4" t="b">
+      <c r="S2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="T2" s="4" t="b">
@@ -750,8 +772,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{A1609F32-2EE6-40F1-9C63-560764431D90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata/IR.xlsx
+++ b/src/test/resources/testdata/IR.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldu\git\d3securityautomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1F79F-5894-4170-B11F-02D73315F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA173D4F-9FBC-48C9-9D95-35413F8BA9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1185" yWindow="5580" windowWidth="29010" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_IR_GeneralInformation" sheetId="1" r:id="rId1"/>
-    <sheet name="IR_Tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="test_IR_AllElements" sheetId="2" r:id="rId2"/>
     <sheet name="IR_Location" sheetId="3" r:id="rId3"/>
     <sheet name="IR_TrackingLog" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>CaseID</t>
   </si>
@@ -175,6 +175,111 @@
   </si>
   <si>
     <t>ldu@d3security.com</t>
+  </si>
+  <si>
+    <t>This is for testing section: All elements</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>DropDownMenu</t>
+  </si>
+  <si>
+    <t>list 3</t>
+  </si>
+  <si>
+    <t>ListBox</t>
+  </si>
+  <si>
+    <t>RadioBox</t>
+  </si>
+  <si>
+    <t>Radio 2</t>
+  </si>
+  <si>
+    <t>RevealCheckBox1-1</t>
+  </si>
+  <si>
+    <t>RevealCheckBox1-2</t>
+  </si>
+  <si>
+    <t>RadioBoxLevel</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>ProvinceDropdown</t>
+  </si>
+  <si>
+    <t>StateDropdown</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>CountryDropdown</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>TimeControlHour</t>
+  </si>
+  <si>
+    <t>TimeControlMin</t>
+  </si>
+  <si>
+    <t>NoonPicker</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>CalendarControl</t>
+  </si>
+  <si>
+    <t>CurrencyTextBox</t>
+  </si>
+  <si>
+    <t>CurrencyDropdown</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>SumUpAmount</t>
+  </si>
+  <si>
+    <t>SearchableTextBox</t>
+  </si>
+  <si>
+    <t>SearchableTextBoxArea</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>New Incident Report - Automation Test</t>
+  </si>
+  <si>
+    <t>TextBox</t>
+  </si>
+  <si>
+    <t>Text box Input test</t>
+  </si>
+  <si>
+    <t>TextAreaReadOnly</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Automation all elements</t>
   </si>
 </sst>
 </file>
@@ -228,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,13 +890,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE9BD0B-7D82-4ECC-9256-751D07419CC2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" customWidth="1"/>
+    <col min="26" max="26" width="23" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>55</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>9999999</v>
+      </c>
+      <c r="W2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata/IR.xlsx
+++ b/src/test/resources/testdata/IR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldu\git\d3securityautomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA173D4F-9FBC-48C9-9D95-35413F8BA9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9279CDD6-69C4-42AE-A720-6232A4F943C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_IR_GeneralInformation" sheetId="1" r:id="rId1"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE9BD0B-7D82-4ECC-9256-751D07419CC2}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/IR.xlsx
+++ b/src/test/resources/testdata/IR.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldu\git\d3securityautomation\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455188FB-C6A0-4709-9A7A-31CE9260CE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13655" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_IR_GeneralInformation" sheetId="1" r:id="rId1"/>
@@ -307,15 +313,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,151 +339,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,194 +359,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -695,332 +368,50 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1278,53 +669,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.13888888888889" customWidth="1"/>
-    <col min="2" max="2" width="32.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="15.287037037037" customWidth="1"/>
-    <col min="4" max="4" width="10.8518518518519" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="10.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.287037037037" customWidth="1"/>
-    <col min="9" max="11" width="16.5740740740741" customWidth="1"/>
-    <col min="12" max="12" width="21.287037037037" customWidth="1"/>
-    <col min="13" max="13" width="16.712962962963" customWidth="1"/>
-    <col min="14" max="14" width="19.712962962963" customWidth="1"/>
-    <col min="15" max="15" width="17.4259259259259" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
     <col min="16" max="16" width="50" customWidth="1"/>
-    <col min="17" max="17" width="15.1388888888889" customWidth="1"/>
-    <col min="18" max="18" width="24.8518518518519" customWidth="1"/>
-    <col min="19" max="19" width="27.712962962963" customWidth="1"/>
-    <col min="20" max="20" width="13.287037037037" customWidth="1"/>
-    <col min="21" max="21" width="16.712962962963" customWidth="1"/>
-    <col min="22" max="23" width="13.287037037037" customWidth="1"/>
-    <col min="24" max="24" width="28.8518518518519" customWidth="1"/>
-    <col min="25" max="25" width="36.8518518518519" customWidth="1"/>
-    <col min="26" max="26" width="27.287037037037" customWidth="1"/>
-    <col min="27" max="27" width="43.287037037037" customWidth="1"/>
-    <col min="28" max="28" width="15.287037037037" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16.287037037037" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" customWidth="1"/>
+    <col min="25" max="25" width="36.85546875" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" customWidth="1"/>
+    <col min="27" max="27" width="43.28515625" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="3" customWidth="1"/>
     <col min="30" max="30" width="17" style="3" customWidth="1"/>
-    <col min="31" max="31" width="8.85185185185185" style="3"/>
-    <col min="32" max="32" width="18.287037037037" style="3" customWidth="1"/>
-    <col min="33" max="33" width="19.287037037037" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" style="3"/>
+    <col min="32" max="32" width="18.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="19.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="7" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1528,54 +919,52 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="ldu@d3security.com"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.8518518518519" customWidth="1"/>
-    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="11.5740740740741" customWidth="1"/>
-    <col min="5" max="5" width="21.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="18.4259259259259" customWidth="1"/>
-    <col min="7" max="7" width="12.4259259259259" customWidth="1"/>
-    <col min="8" max="8" width="11.1388888888889" customWidth="1"/>
-    <col min="9" max="9" width="15.287037037037" customWidth="1"/>
-    <col min="10" max="10" width="14.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="18.8518518518519" customWidth="1"/>
-    <col min="14" max="14" width="14.4259259259259" customWidth="1"/>
-    <col min="15" max="15" width="15.5740740740741" customWidth="1"/>
-    <col min="16" max="16" width="17.4259259259259" customWidth="1"/>
-    <col min="17" max="17" width="17.5740740740741" customWidth="1"/>
-    <col min="18" max="18" width="21.1388888888889" customWidth="1"/>
-    <col min="19" max="19" width="17.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="16.4259259259259" customWidth="1"/>
-    <col min="23" max="23" width="18.8518518518519" customWidth="1"/>
-    <col min="24" max="24" width="14.5740740740741" customWidth="1"/>
-    <col min="25" max="25" width="18.8518518518519" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" customWidth="1"/>
     <col min="26" max="26" width="23" customWidth="1"/>
-    <col min="27" max="27" width="16.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
     <col min="28" max="28" width="17" customWidth="1"/>
-    <col min="29" max="29" width="18.4259259259259" customWidth="1"/>
-    <col min="30" max="33" width="24.5555555555556" customWidth="1"/>
-    <col min="35" max="35" width="19.8888888888889" customWidth="1"/>
-    <col min="36" max="36" width="12.2222222222222" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="30" max="33" width="24.5703125" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -1694,7 +1083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:38">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1803,43 +1192,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" display="ldu@d3security.com" tooltip="mailto:ldu@d3security.com"/>
-    <hyperlink ref="AD2" r:id="rId1" display="ldu@d3security.com"/>
+    <hyperlink ref="AC2" r:id="rId1" tooltip="mailto:ldu@d3security.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="AD2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>